--- a/Source/name_mapping.xlsx
+++ b/Source/name_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work2\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GISwork\work10_18\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721EC438-9A38-4F0E-BD09-C6B0282D7C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD17A042-1D99-4897-B9EA-F5ADF12DBBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{42750DFB-59D3-42EE-B77C-D05272544998}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{42750DFB-59D3-42EE-B77C-D05272544998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62354AC-1B02-49C2-A0F5-54C2A85F408A}">
   <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
